--- a/outputs/faculty_timetables/Dr__Rajesh_N_S.xlsx
+++ b/outputs/faculty_timetables/Dr__Rajesh_N_S.xlsx
@@ -683,7 +683,7 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" s="2" t="inlineStr">
         <is>
-          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C002</t>
+          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C003</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
